--- a/week04/dummy_data.xlsx
+++ b/week04/dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhao/Desktop/Data Structure/Assignment04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55AAB43-AFE7-C948-A0F2-C25E0C54C4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE81774A-7101-9A49-A860-53DA9115D00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1360" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Zip_Code</t>
   </si>
   <si>
-    <t>Longtitude</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>Meeting_ID [FK]</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -753,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>13</v>
@@ -771,8 +771,8 @@
   </sheetPr>
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -795,7 +795,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>18</v>
@@ -816,22 +816,22 @@
         <v>23</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -855,19 +855,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="8">
         <v>10007</v>
@@ -879,16 +879,16 @@
         <v>74.002399447874794</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -896,19 +896,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8">
         <v>10007</v>
@@ -920,16 +920,16 @@
         <v>74.002399447874794</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -937,19 +937,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="8">
         <v>10013</v>
@@ -961,10 +961,10 @@
         <v>-73.998999999999995</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>13</v>
@@ -985,8 +985,8 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1000,28 +1000,28 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1052,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="G2" s="8">
         <v>7</v>
@@ -1078,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="18">
         <v>0.51041666666666663</v>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="18">
         <v>0.51041666666666663</v>
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="18">
         <v>0.51041666666666663</v>
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="18">
         <v>0.51041666666666663</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="18">
         <v>0.77083333333333337</v>
@@ -1247,10 +1247,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1266,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1282,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1290,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1306,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1335,13 +1335,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
